--- a/dataExcel/【格洛克 18 型 _ 摩登时代 (战痕累累)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【格洛克 18 型 _ 摩登时代 (战痕累累)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,739 +422,739 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-14 22:03:50</v>
+        <v>2023-09-17 21:37:03</v>
       </c>
       <c r="B8">
-        <v>19.72</v>
+        <v>19.97</v>
       </c>
       <c r="C8">
-        <v>24.87</v>
+        <v>24.22</v>
       </c>
       <c r="D8">
         <v>165</v>
       </c>
       <c r="E8">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="F8">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-15 01:41:08</v>
+        <v>2023-09-18 01:15:14</v>
       </c>
       <c r="B9">
-        <v>20.28</v>
+        <v>19.86</v>
       </c>
       <c r="C9">
-        <v>23.99</v>
+        <v>23.79</v>
       </c>
       <c r="D9">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E9">
-        <v>18.7</v>
+        <v>18.89</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-15 05:20:20</v>
+        <v>2023-09-18 04:51:21</v>
       </c>
       <c r="B10">
-        <v>20.28</v>
+        <v>19.76</v>
       </c>
       <c r="C10">
-        <v>23.8</v>
+        <v>25.31</v>
       </c>
       <c r="D10">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E10">
-        <v>18.8</v>
+        <v>18.89</v>
       </c>
       <c r="F10">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-15 08:59:40</v>
+        <v>2023-09-18 08:31:50</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>19.66</v>
       </c>
       <c r="C11">
-        <v>24.81</v>
+        <v>24.88</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E11">
-        <v>18.7</v>
+        <v>18.89</v>
       </c>
       <c r="F11">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-16 04:50:21</v>
+        <v>2023-09-18 12:09:38</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>19.39</v>
       </c>
       <c r="C12">
-        <v>25.53</v>
+        <v>24.88</v>
       </c>
       <c r="D12">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E12">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="F12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-16 08:29:22</v>
+        <v>2023-09-18 15:54:31</v>
       </c>
       <c r="B13">
-        <v>18.89</v>
+        <v>19.39</v>
       </c>
       <c r="C13">
         <v>24.81</v>
       </c>
       <c r="D13">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="E13">
-        <v>18.8</v>
+        <v>18.89</v>
       </c>
       <c r="F13">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-16 12:27:02</v>
+        <v>2023-09-18 19:32:34</v>
       </c>
       <c r="B14">
-        <v>19.98</v>
+        <v>19.19</v>
       </c>
       <c r="C14">
-        <v>24.73</v>
+        <v>24.51</v>
       </c>
       <c r="D14">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="E14">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="F14">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-16 16:04:03</v>
+        <v>2023-09-18 23:07:57</v>
       </c>
       <c r="B15">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>27.35</v>
+        <v>22.26</v>
       </c>
       <c r="D15">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="E15">
-        <v>18.8</v>
+        <v>18.89</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-16 16:07:05</v>
+        <v>2023-09-19 02:46:11</v>
       </c>
       <c r="B16">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>27.35</v>
+        <v>25.31</v>
       </c>
       <c r="D16">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="E16">
         <v>18.8</v>
       </c>
       <c r="F16">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-16 19:47:19</v>
+        <v>2023-09-19 06:25:39</v>
       </c>
       <c r="B17">
-        <v>19.1</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>24.08</v>
+        <v>26.18</v>
       </c>
       <c r="D17">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="E17">
         <v>18.8</v>
       </c>
       <c r="F17">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-16 23:25:06</v>
+        <v>2023-09-19 10:03:59</v>
       </c>
       <c r="B18">
         <v>19.8</v>
       </c>
       <c r="C18">
-        <v>25.61</v>
+        <v>26.98</v>
       </c>
       <c r="D18">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="E18">
         <v>18.8</v>
       </c>
       <c r="F18">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-17 03:06:15</v>
+        <v>2023-09-19 13:44:44</v>
       </c>
       <c r="B19">
-        <v>19.39</v>
+        <v>19.8</v>
       </c>
       <c r="C19">
-        <v>24.73</v>
+        <v>24.79</v>
       </c>
       <c r="D19">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E19">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="F19">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-17 06:44:38</v>
+        <v>2023-09-19 17:26:32</v>
       </c>
       <c r="B20">
-        <v>19.3</v>
+        <v>19.59</v>
       </c>
       <c r="C20">
-        <v>23.79</v>
+        <v>24.72</v>
       </c>
       <c r="D20">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E20">
         <v>18.8</v>
       </c>
       <c r="F20">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-17 10:17:52</v>
+        <v>2023-09-19 21:00:42</v>
       </c>
       <c r="B21">
-        <v>18.89</v>
+        <v>19.6</v>
       </c>
       <c r="C21">
-        <v>24.73</v>
+        <v>26.98</v>
       </c>
       <c r="D21">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E21">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="F21">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-17 14:01:06</v>
+        <v>2023-09-20 00:37:58</v>
       </c>
       <c r="B22">
-        <v>19.97</v>
+        <v>19.59</v>
       </c>
       <c r="C22">
-        <v>25.24</v>
+        <v>25.3</v>
       </c>
       <c r="D22">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E22">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="F22">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-17 17:44:23</v>
+        <v>2023-09-20 04:17:11</v>
       </c>
       <c r="B23">
-        <v>18.98</v>
+        <v>19.6</v>
       </c>
       <c r="C23">
-        <v>24.01</v>
+        <v>25.61</v>
       </c>
       <c r="D23">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="E23">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="F23">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-17 17:55:20</v>
+        <v>2023-09-20 07:59:17</v>
       </c>
       <c r="B24">
-        <v>18.88</v>
+        <v>20.21</v>
       </c>
       <c r="C24">
-        <v>24.01</v>
+        <v>24.88</v>
       </c>
       <c r="D24">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="E24">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="F24">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-17 21:37:03</v>
+        <v>2023-09-20 11:39:05</v>
       </c>
       <c r="B25">
-        <v>19.97</v>
+        <v>20.11</v>
       </c>
       <c r="C25">
-        <v>24.22</v>
+        <v>25.54</v>
       </c>
       <c r="D25">
         <v>165</v>
       </c>
       <c r="E25">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="F25">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-18 01:15:14</v>
+        <v>2023-09-20 15:19:08</v>
       </c>
       <c r="B26">
-        <v>19.86</v>
+        <v>20.49</v>
       </c>
       <c r="C26">
-        <v>23.79</v>
+        <v>25.54</v>
       </c>
       <c r="D26">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E26">
-        <v>18.89</v>
+        <v>18.6</v>
       </c>
       <c r="F26">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-18 04:51:21</v>
+        <v>2023-09-20 18:57:39</v>
       </c>
       <c r="B27">
-        <v>19.76</v>
+        <v>20.28</v>
       </c>
       <c r="C27">
-        <v>25.31</v>
+        <v>26.34</v>
       </c>
       <c r="D27">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E27">
-        <v>18.89</v>
+        <v>18.8</v>
       </c>
       <c r="F27">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-18 08:31:50</v>
+        <v>2023-09-20 22:35:53</v>
       </c>
       <c r="B28">
-        <v>19.66</v>
+        <v>20.38</v>
       </c>
       <c r="C28">
-        <v>24.88</v>
+        <v>25.69</v>
       </c>
       <c r="D28">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E28">
-        <v>18.89</v>
+        <v>18.8</v>
       </c>
       <c r="F28">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-18 12:09:38</v>
+        <v>2023-09-21 02:10:45</v>
       </c>
       <c r="B29">
-        <v>19.39</v>
+        <v>20.45</v>
       </c>
       <c r="C29">
-        <v>24.88</v>
+        <v>25.32</v>
       </c>
       <c r="D29">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E29">
-        <v>19.2</v>
+        <v>18.89</v>
       </c>
       <c r="F29">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-18 15:54:31</v>
+        <v>2023-09-21 05:56:03</v>
       </c>
       <c r="B30">
-        <v>19.39</v>
+        <v>20.14</v>
       </c>
       <c r="C30">
-        <v>24.81</v>
+        <v>26.23</v>
       </c>
       <c r="D30">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E30">
-        <v>18.89</v>
+        <v>19.1</v>
       </c>
       <c r="F30">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-18 19:32:34</v>
+        <v>2023-09-21 06:03:24</v>
       </c>
       <c r="B31">
-        <v>19.19</v>
+        <v>20.14</v>
       </c>
       <c r="C31">
-        <v>24.51</v>
+        <v>26.23</v>
       </c>
       <c r="D31">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E31">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F31">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-18 23:07:57</v>
+        <v>2023-09-21 09:46:55</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>20.05</v>
       </c>
       <c r="C32">
-        <v>22.26</v>
+        <v>24.63</v>
       </c>
       <c r="D32">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E32">
-        <v>18.89</v>
+        <v>19.1</v>
       </c>
       <c r="F32">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-19 02:46:11</v>
+        <v>2023-09-21 13:26:28</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>19.85</v>
       </c>
       <c r="C33">
-        <v>25.31</v>
+        <v>25.14</v>
       </c>
       <c r="D33">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E33">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="F33">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-19 06:25:39</v>
+        <v>2023-09-21 13:31:23</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>19.85</v>
       </c>
       <c r="C34">
-        <v>26.18</v>
+        <v>25.14</v>
       </c>
       <c r="D34">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E34">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="F34">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-19 10:03:59</v>
+        <v>2023-09-21 17:14:40</v>
       </c>
       <c r="B35">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="C35">
-        <v>26.98</v>
+        <v>24.92</v>
       </c>
       <c r="D35">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="E35">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="F35">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-19 13:44:44</v>
+        <v>2023-09-21 20:56:32</v>
       </c>
       <c r="B36">
-        <v>19.8</v>
+        <v>19.68</v>
       </c>
       <c r="C36">
-        <v>24.79</v>
+        <v>24.85</v>
       </c>
       <c r="D36">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E36">
-        <v>18.7</v>
+        <v>17.39</v>
       </c>
       <c r="F36">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-19 17:26:32</v>
+        <v>2023-09-22 00:34:52</v>
       </c>
       <c r="B37">
-        <v>19.59</v>
+        <v>20.36</v>
       </c>
       <c r="C37">
-        <v>24.72</v>
+        <v>24.85</v>
       </c>
       <c r="D37">
         <v>168</v>
       </c>
       <c r="E37">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="F37">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-19 21:00:42</v>
+        <v>2023-09-22 04:09:57</v>
       </c>
       <c r="B38">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="C38">
-        <v>26.98</v>
+        <v>25.21</v>
       </c>
       <c r="D38">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E38">
-        <v>18.7</v>
+        <v>17.39</v>
       </c>
       <c r="F38">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-20 00:37:58</v>
+        <v>2023-09-22 07:48:53</v>
       </c>
       <c r="B39">
-        <v>19.59</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>25.3</v>
+        <v>24.04</v>
       </c>
       <c r="D39">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E39">
-        <v>18.7</v>
+        <v>18.3</v>
       </c>
       <c r="F39">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-20 04:17:11</v>
+        <v>2023-09-22 11:26:34</v>
       </c>
       <c r="B40">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="C40">
-        <v>25.61</v>
+        <v>24.63</v>
       </c>
       <c r="D40">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="E40">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="F40">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-20 07:59:17</v>
+        <v>2023-09-22 15:02:40</v>
       </c>
       <c r="B41">
-        <v>20.21</v>
+        <v>19.97</v>
       </c>
       <c r="C41">
-        <v>24.88</v>
+        <v>24.48</v>
       </c>
       <c r="D41">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E41">
-        <v>18.7</v>
+        <v>18.3</v>
       </c>
       <c r="F41">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-20 11:39:05</v>
+        <v>2023-09-22 18:46:26</v>
       </c>
       <c r="B42">
-        <v>20.11</v>
+        <v>19.26</v>
       </c>
       <c r="C42">
-        <v>25.54</v>
+        <v>24.7</v>
       </c>
       <c r="D42">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="E42">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F42">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-20 15:19:08</v>
+        <v>2023-09-22 22:25:07</v>
       </c>
       <c r="B43">
-        <v>20.49</v>
+        <v>19.64</v>
       </c>
       <c r="C43">
-        <v>25.54</v>
+        <v>24.63</v>
       </c>
       <c r="D43">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="E43">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="F43">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-20 18:57:39</v>
+        <v>2023-09-23 02:06:29</v>
       </c>
       <c r="B44">
-        <v>20.28</v>
+        <v>19.97</v>
       </c>
       <c r="C44">
-        <v>26.34</v>
+        <v>24.92</v>
       </c>
       <c r="D44">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E44">
-        <v>18.8</v>
+        <v>18.39</v>
       </c>
       <c r="F44">
         <v>30</v>
@@ -1162,539 +1162,539 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-20 22:35:53</v>
+        <v>2023-09-23 05:45:14</v>
       </c>
       <c r="B45">
-        <v>20.38</v>
+        <v>19.97</v>
       </c>
       <c r="C45">
-        <v>25.69</v>
+        <v>25.47</v>
       </c>
       <c r="D45">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E45">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="F45">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-21 02:10:45</v>
+        <v>2023-09-23 09:26:08</v>
       </c>
       <c r="B46">
-        <v>20.45</v>
+        <v>20.07</v>
       </c>
       <c r="C46">
-        <v>25.32</v>
+        <v>24.81</v>
       </c>
       <c r="D46">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E46">
-        <v>18.89</v>
+        <v>18.5</v>
       </c>
       <c r="F46">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-21 05:56:03</v>
+        <v>2023-09-23 13:06:00</v>
       </c>
       <c r="B47">
-        <v>20.14</v>
+        <v>20.2</v>
       </c>
       <c r="C47">
-        <v>26.23</v>
+        <v>24.89</v>
       </c>
       <c r="D47">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="E47">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="F47">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-21 06:03:24</v>
+        <v>2023-09-23 16:43:19</v>
       </c>
       <c r="B48">
-        <v>20.14</v>
+        <v>19.98</v>
       </c>
       <c r="C48">
-        <v>26.23</v>
+        <v>24.81</v>
       </c>
       <c r="D48">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="E48">
-        <v>19.1</v>
+        <v>18.89</v>
       </c>
       <c r="F48">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-21 09:46:55</v>
+        <v>2023-09-23 20:25:29</v>
       </c>
       <c r="B49">
-        <v>20.05</v>
+        <v>19.75</v>
       </c>
       <c r="C49">
-        <v>24.63</v>
+        <v>25.4</v>
       </c>
       <c r="D49">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="E49">
-        <v>19.1</v>
+        <v>18.89</v>
       </c>
       <c r="F49">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-21 13:26:28</v>
+        <v>2023-09-24 00:04:04</v>
       </c>
       <c r="B50">
-        <v>19.85</v>
+        <v>19.3</v>
       </c>
       <c r="C50">
-        <v>25.14</v>
+        <v>24.89</v>
       </c>
       <c r="D50">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="E50">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="F50">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-21 13:31:23</v>
+        <v>2023-09-24 03:46:35</v>
       </c>
       <c r="B51">
-        <v>19.85</v>
+        <v>19.38</v>
       </c>
       <c r="C51">
-        <v>25.14</v>
+        <v>25.47</v>
       </c>
       <c r="D51">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="E51">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="F51">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-21 17:14:40</v>
+        <v>2023-09-24 07:24:30</v>
       </c>
       <c r="B52">
-        <v>19.7</v>
+        <v>19.27</v>
       </c>
       <c r="C52">
-        <v>24.92</v>
+        <v>25.17</v>
       </c>
       <c r="D52">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="E52">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="F52">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-21 20:56:32</v>
+        <v>2023-09-24 11:05:46</v>
       </c>
       <c r="B53">
-        <v>19.68</v>
+        <v>19.16</v>
       </c>
       <c r="C53">
-        <v>24.85</v>
+        <v>25.17</v>
       </c>
       <c r="D53">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="E53">
-        <v>17.39</v>
+        <v>18.8</v>
       </c>
       <c r="F53">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-22 00:34:52</v>
+        <v>2023-09-24 16:16:35</v>
       </c>
       <c r="B54">
-        <v>20.36</v>
+        <v>18.98</v>
       </c>
       <c r="C54">
-        <v>24.85</v>
+        <v>27.07</v>
       </c>
       <c r="D54">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="E54">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="F54">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-22 04:09:57</v>
+        <v>2023-09-24 21:25:48</v>
       </c>
       <c r="B55">
-        <v>20.1</v>
+        <v>20.26</v>
       </c>
       <c r="C55">
-        <v>25.21</v>
+        <v>24.88</v>
       </c>
       <c r="D55">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E55">
-        <v>17.39</v>
+        <v>18.8</v>
       </c>
       <c r="F55">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-22 07:48:53</v>
+        <v>2023-09-25 02:35:29</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>18.75</v>
       </c>
       <c r="C56">
-        <v>24.04</v>
+        <v>25.25</v>
       </c>
       <c r="D56">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E56">
-        <v>18.3</v>
+        <v>18.89</v>
       </c>
       <c r="F56">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-22 11:26:34</v>
+        <v>2023-09-25 07:44:46</v>
       </c>
       <c r="B57">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="C57">
-        <v>24.63</v>
+        <v>26.12</v>
       </c>
       <c r="D57">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E57">
-        <v>18.5</v>
+        <v>18.89</v>
       </c>
       <c r="F57">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-22 15:02:40</v>
+        <v>2023-09-25 12:55:24</v>
       </c>
       <c r="B58">
-        <v>19.97</v>
+        <v>19.45</v>
       </c>
       <c r="C58">
-        <v>24.48</v>
+        <v>25.17</v>
       </c>
       <c r="D58">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E58">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="F58">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-22 18:46:26</v>
+        <v>2023-09-25 18:06:47</v>
       </c>
       <c r="B59">
-        <v>19.26</v>
+        <v>19.66</v>
       </c>
       <c r="C59">
-        <v>24.7</v>
+        <v>25.25</v>
       </c>
       <c r="D59">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E59">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F59">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-22 22:25:07</v>
+        <v>2023-09-25 23:16:44</v>
       </c>
       <c r="B60">
-        <v>19.64</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>24.63</v>
+        <v>25.47</v>
       </c>
       <c r="D60">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E60">
         <v>19.1</v>
       </c>
       <c r="F60">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-23 02:06:29</v>
+        <v>2023-09-26 04:24:17</v>
       </c>
       <c r="B61">
-        <v>19.97</v>
+        <v>20.29</v>
       </c>
       <c r="C61">
-        <v>24.92</v>
+        <v>25.32</v>
       </c>
       <c r="D61">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E61">
-        <v>18.39</v>
+        <v>19</v>
       </c>
       <c r="F61">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-23 05:45:14</v>
+        <v>2023-09-26 09:36:21</v>
       </c>
       <c r="B62">
-        <v>19.97</v>
+        <v>20.09</v>
       </c>
       <c r="C62">
-        <v>25.47</v>
+        <v>25.52</v>
       </c>
       <c r="D62">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E62">
-        <v>18.5</v>
+        <v>19.1</v>
       </c>
       <c r="F62">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-23 09:26:08</v>
+        <v>2023-09-26 14:46:52</v>
       </c>
       <c r="B63">
-        <v>20.07</v>
+        <v>19.98</v>
       </c>
       <c r="C63">
-        <v>24.81</v>
+        <v>25.37</v>
       </c>
       <c r="D63">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E63">
-        <v>18.5</v>
+        <v>19.1</v>
       </c>
       <c r="F63">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-23 13:06:00</v>
+        <v>2023-09-26 19:56:40</v>
       </c>
       <c r="B64">
-        <v>20.2</v>
+        <v>19.22</v>
       </c>
       <c r="C64">
-        <v>24.89</v>
+        <v>25.45</v>
       </c>
       <c r="D64">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="E64">
-        <v>18.6</v>
+        <v>19.2</v>
       </c>
       <c r="F64">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-23 16:43:19</v>
+        <v>2023-09-27 01:06:37</v>
       </c>
       <c r="B65">
-        <v>19.98</v>
+        <v>19.64</v>
       </c>
       <c r="C65">
-        <v>24.81</v>
+        <v>25.74</v>
       </c>
       <c r="D65">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="E65">
-        <v>18.89</v>
+        <v>19.3</v>
       </c>
       <c r="F65">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-23 20:25:29</v>
+        <v>2023-09-27 06:14:36</v>
       </c>
       <c r="B66">
-        <v>19.75</v>
+        <v>20.45</v>
       </c>
       <c r="C66">
-        <v>25.4</v>
+        <v>26.32</v>
       </c>
       <c r="D66">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="E66">
-        <v>18.89</v>
+        <v>19.39</v>
       </c>
       <c r="F66">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-24 00:04:04</v>
+        <v>2023-09-27 11:25:32</v>
       </c>
       <c r="B67">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <v>24.89</v>
+        <v>25.59</v>
       </c>
       <c r="D67">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="E67">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="F67">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-24 03:46:35</v>
+        <v>2023-09-27 16:36:39</v>
       </c>
       <c r="B68">
-        <v>19.38</v>
+        <v>19.53</v>
       </c>
       <c r="C68">
-        <v>25.47</v>
+        <v>25.59</v>
       </c>
       <c r="D68">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="E68">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="F68">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-24 07:24:30</v>
+        <v>2023-09-27 21:45:27</v>
       </c>
       <c r="B69">
-        <v>19.27</v>
+        <v>20</v>
       </c>
       <c r="C69">
-        <v>25.17</v>
+        <v>26.47</v>
       </c>
       <c r="D69">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="E69">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="F69">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-24 11:05:46</v>
+        <v>2023-09-28 02:58:33</v>
       </c>
       <c r="B70">
-        <v>19.16</v>
+        <v>20.67</v>
       </c>
       <c r="C70">
-        <v>25.17</v>
+        <v>27.56</v>
       </c>
       <c r="D70">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="E70">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="F70">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-24 16:16:35</v>
+        <v>2023-09-28 08:05:49</v>
       </c>
       <c r="B71">
-        <v>18.98</v>
+        <v>20.57</v>
       </c>
       <c r="C71">
-        <v>27.07</v>
+        <v>25.59</v>
       </c>
       <c r="D71">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="E71">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -1702,579 +1702,579 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-24 21:25:48</v>
+        <v>2023-09-28 13:15:02</v>
       </c>
       <c r="B72">
-        <v>20.26</v>
+        <v>20.47</v>
       </c>
       <c r="C72">
-        <v>24.88</v>
+        <v>25.22</v>
       </c>
       <c r="D72">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E72">
-        <v>18.8</v>
+        <v>20.1</v>
       </c>
       <c r="F72">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-25 02:35:29</v>
+        <v>2023-09-28 18:27:10</v>
       </c>
       <c r="B73">
-        <v>18.75</v>
+        <v>20.18</v>
       </c>
       <c r="C73">
-        <v>25.25</v>
+        <v>25.44</v>
       </c>
       <c r="D73">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="E73">
-        <v>18.89</v>
+        <v>20</v>
       </c>
       <c r="F73">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-25 07:44:46</v>
+        <v>2023-09-28 23:35:51</v>
       </c>
       <c r="B74">
-        <v>19.8</v>
+        <v>20.09</v>
       </c>
       <c r="C74">
-        <v>26.12</v>
+        <v>27.05</v>
       </c>
       <c r="D74">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="E74">
-        <v>18.89</v>
+        <v>19.89</v>
       </c>
       <c r="F74">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-25 12:55:24</v>
+        <v>2023-09-29 04:45:57</v>
       </c>
       <c r="B75">
-        <v>19.45</v>
+        <v>20.2</v>
       </c>
       <c r="C75">
-        <v>25.17</v>
+        <v>26.21</v>
       </c>
       <c r="D75">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E75">
-        <v>19</v>
+        <v>19.89</v>
       </c>
       <c r="F75">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-25 18:06:47</v>
+        <v>2023-09-29 09:55:29</v>
       </c>
       <c r="B76">
-        <v>19.66</v>
+        <v>19.98</v>
       </c>
       <c r="C76">
-        <v>25.25</v>
+        <v>26.28</v>
       </c>
       <c r="D76">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E76">
-        <v>19</v>
+        <v>19.8</v>
       </c>
       <c r="F76">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-25 23:16:44</v>
+        <v>2023-09-29 15:08:33</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>19.98</v>
       </c>
       <c r="C77">
-        <v>25.47</v>
+        <v>27.96</v>
       </c>
       <c r="D77">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E77">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="F77">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-26 04:24:17</v>
+        <v>2023-09-29 20:16:59</v>
       </c>
       <c r="B78">
-        <v>20.29</v>
+        <v>19.5</v>
       </c>
       <c r="C78">
-        <v>25.32</v>
+        <v>27.38</v>
       </c>
       <c r="D78">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="E78">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="F78">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-26 09:36:21</v>
+        <v>2023-09-30 01:30:50</v>
       </c>
       <c r="B79">
-        <v>20.09</v>
+        <v>19.48</v>
       </c>
       <c r="C79">
-        <v>25.52</v>
+        <v>26.43</v>
       </c>
       <c r="D79">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="E79">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="F79">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-26 14:46:52</v>
+        <v>2023-09-30 06:39:26</v>
       </c>
       <c r="B80">
-        <v>19.98</v>
+        <v>19.5</v>
       </c>
       <c r="C80">
-        <v>25.37</v>
+        <v>27.87</v>
       </c>
       <c r="D80">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="E80">
-        <v>19.1</v>
+        <v>19.6</v>
       </c>
       <c r="F80">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-26 19:56:40</v>
+        <v>2023-09-30 11:49:26</v>
       </c>
       <c r="B81">
-        <v>19.22</v>
+        <v>19.1</v>
       </c>
       <c r="C81">
-        <v>25.45</v>
+        <v>27.29</v>
       </c>
       <c r="D81">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E81">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F81">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-27 01:06:37</v>
+        <v>2023-09-30 16:59:25</v>
       </c>
       <c r="B82">
-        <v>19.64</v>
+        <v>17.8</v>
       </c>
       <c r="C82">
-        <v>25.74</v>
+        <v>25.97</v>
       </c>
       <c r="D82">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="E82">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="F82">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-27 06:14:36</v>
+        <v>2023-09-30 22:09:23</v>
       </c>
       <c r="B83">
-        <v>20.45</v>
+        <v>18.67</v>
       </c>
       <c r="C83">
-        <v>26.32</v>
+        <v>25.53</v>
       </c>
       <c r="D83">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="E83">
-        <v>19.39</v>
+        <v>18</v>
       </c>
       <c r="F83">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-27 11:25:32</v>
+        <v>2023-10-01 03:19:23</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>18.66</v>
       </c>
       <c r="C84">
-        <v>25.59</v>
+        <v>25.39</v>
       </c>
       <c r="D84">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="E84">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="F84">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-27 16:36:39</v>
+        <v>2023-10-01 08:29:22</v>
       </c>
       <c r="B85">
-        <v>19.53</v>
+        <v>18.52</v>
       </c>
       <c r="C85">
-        <v>25.59</v>
+        <v>24.8</v>
       </c>
       <c r="D85">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="E85">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="F85">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-27 21:45:27</v>
+        <v>2023-10-01 13:39:21</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>26.47</v>
+        <v>26.48</v>
       </c>
       <c r="D86">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="E86">
-        <v>19.7</v>
+        <v>18.1</v>
       </c>
       <c r="F86">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-28 02:58:33</v>
+        <v>2023-10-01 18:49:20</v>
       </c>
       <c r="B87">
-        <v>20.67</v>
+        <v>18</v>
       </c>
       <c r="C87">
-        <v>27.56</v>
+        <v>26.55</v>
       </c>
       <c r="D87">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="E87">
-        <v>19.8</v>
+        <v>18.1</v>
       </c>
       <c r="F87">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-28 08:05:49</v>
+        <v>2023-10-01 23:59:19</v>
       </c>
       <c r="B88">
-        <v>20.57</v>
+        <v>17.89</v>
       </c>
       <c r="C88">
-        <v>25.59</v>
+        <v>24.58</v>
       </c>
       <c r="D88">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="E88">
-        <v>19.8</v>
+        <v>18</v>
       </c>
       <c r="F88">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-28 13:15:02</v>
+        <v>2023-10-02 05:09:33</v>
       </c>
       <c r="B89">
-        <v>20.47</v>
+        <v>17.89</v>
       </c>
       <c r="C89">
-        <v>25.22</v>
+        <v>24.53</v>
       </c>
       <c r="D89">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="E89">
-        <v>20.1</v>
+        <v>18</v>
       </c>
       <c r="F89">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-28 18:27:10</v>
+        <v>2023-10-02 10:19:25</v>
       </c>
       <c r="B90">
-        <v>20.18</v>
+        <v>17.89</v>
       </c>
       <c r="C90">
-        <v>25.44</v>
+        <v>25.18</v>
       </c>
       <c r="D90">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F90">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-28 23:35:51</v>
+        <v>2023-10-02 15:29:24</v>
       </c>
       <c r="B91">
-        <v>20.09</v>
+        <v>17.88</v>
       </c>
       <c r="C91">
-        <v>27.05</v>
+        <v>24.1</v>
       </c>
       <c r="D91">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="E91">
-        <v>19.89</v>
+        <v>18</v>
       </c>
       <c r="F91">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-29 04:45:57</v>
+        <v>2023-10-02 20:39:24</v>
       </c>
       <c r="B92">
-        <v>20.2</v>
+        <v>18.98</v>
       </c>
       <c r="C92">
-        <v>26.21</v>
+        <v>24.82</v>
       </c>
       <c r="D92">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E92">
-        <v>19.89</v>
+        <v>17</v>
       </c>
       <c r="F92">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-29 09:55:29</v>
+        <v>2023-10-03 01:49:16</v>
       </c>
       <c r="B93">
-        <v>19.98</v>
+        <v>18.57</v>
       </c>
       <c r="C93">
-        <v>26.28</v>
+        <v>24.89</v>
       </c>
       <c r="D93">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E93">
-        <v>19.8</v>
+        <v>17.7</v>
       </c>
       <c r="F93">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-29 15:08:33</v>
+        <v>2023-10-03 06:59:15</v>
       </c>
       <c r="B94">
-        <v>19.98</v>
+        <v>18.57</v>
       </c>
       <c r="C94">
-        <v>27.96</v>
+        <v>24.21</v>
       </c>
       <c r="D94">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E94">
-        <v>19.6</v>
+        <v>17.7</v>
       </c>
       <c r="F94">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-29 20:16:59</v>
+        <v>2023-10-03 12:09:15</v>
       </c>
       <c r="B95">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="C95">
-        <v>27.38</v>
+        <v>23.7</v>
       </c>
       <c r="D95">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="E95">
-        <v>19.6</v>
+        <v>17.7</v>
       </c>
       <c r="F95">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-30 01:30:50</v>
+        <v>2023-10-03 17:19:14</v>
       </c>
       <c r="B96">
-        <v>19.48</v>
+        <v>18.59</v>
       </c>
       <c r="C96">
-        <v>26.43</v>
+        <v>25.28</v>
       </c>
       <c r="D96">
         <v>229</v>
       </c>
       <c r="E96">
-        <v>19.6</v>
+        <v>17.8</v>
       </c>
       <c r="F96">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-30 06:39:26</v>
+        <v>2023-10-03 22:30:06</v>
       </c>
       <c r="B97">
-        <v>19.5</v>
+        <v>17.8</v>
       </c>
       <c r="C97">
-        <v>27.87</v>
+        <v>24.35</v>
       </c>
       <c r="D97">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="E97">
-        <v>19.6</v>
+        <v>17.89</v>
       </c>
       <c r="F97">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-30 11:49:26</v>
+        <v>2023-10-04 03:41:09</v>
       </c>
       <c r="B98">
-        <v>19.1</v>
+        <v>18.07</v>
       </c>
       <c r="C98">
-        <v>27.29</v>
+        <v>25</v>
       </c>
       <c r="D98">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E98">
-        <v>19</v>
+        <v>17.89</v>
       </c>
       <c r="F98">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-30 16:59:25</v>
+        <v>2023-10-04 08:49:30</v>
       </c>
       <c r="B99">
-        <v>17.8</v>
+        <v>18.18</v>
       </c>
       <c r="C99">
-        <v>25.97</v>
+        <v>24.4</v>
       </c>
       <c r="D99">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E99">
+        <v>16.5</v>
+      </c>
+      <c r="F99">
         <v>19</v>
-      </c>
-      <c r="F99">
-        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-30 22:09:23</v>
+        <v>2023-10-04 14:01:12</v>
       </c>
       <c r="B100">
-        <v>18.67</v>
+        <v>18.47</v>
       </c>
       <c r="C100">
-        <v>25.53</v>
+        <v>24.18</v>
       </c>
       <c r="D100">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E100">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F100">
         <v>19</v>
@@ -2282,1362 +2282,1342 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-01 03:19:23</v>
+        <v>2023-10-04 19:09:37</v>
       </c>
       <c r="B101">
-        <v>18.66</v>
+        <v>18.26</v>
       </c>
       <c r="C101">
-        <v>25.39</v>
+        <v>25.19</v>
       </c>
       <c r="D101">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="E101">
-        <v>18</v>
+        <v>16.7</v>
       </c>
       <c r="F101">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-01 08:29:22</v>
+        <v>2023-10-05 00:19:36</v>
       </c>
       <c r="B102">
-        <v>18.52</v>
+        <v>18.37</v>
       </c>
       <c r="C102">
-        <v>24.8</v>
+        <v>23.39</v>
       </c>
       <c r="D102">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E102">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F102">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-01 13:39:21</v>
+        <v>2023-10-05 05:30:32</v>
       </c>
       <c r="B103">
-        <v>18</v>
+        <v>18.46</v>
       </c>
       <c r="C103">
-        <v>26.48</v>
+        <v>23.54</v>
       </c>
       <c r="D103">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E103">
-        <v>18.1</v>
+        <v>17.2</v>
       </c>
       <c r="F103">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-01 18:49:20</v>
+        <v>2023-10-05 10:39:43</v>
       </c>
       <c r="B104">
         <v>18</v>
       </c>
       <c r="C104">
-        <v>26.55</v>
+        <v>24.83</v>
       </c>
       <c r="D104">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E104">
-        <v>18.1</v>
+        <v>17.2</v>
       </c>
       <c r="F104">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-01 23:59:19</v>
+        <v>2023-10-05 15:44:30</v>
       </c>
       <c r="B105">
-        <v>17.89</v>
+        <v>17.57</v>
       </c>
       <c r="C105">
-        <v>24.58</v>
+        <v>23.75</v>
       </c>
       <c r="D105">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E105">
-        <v>18</v>
+        <v>16.2</v>
       </c>
       <c r="F105">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-02 05:09:33</v>
+        <v>2023-10-05 20:54:09</v>
       </c>
       <c r="B106">
-        <v>17.89</v>
+        <v>17.68</v>
       </c>
       <c r="C106">
-        <v>24.53</v>
+        <v>24.19</v>
       </c>
       <c r="D106">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="E106">
+        <v>16.7</v>
+      </c>
+      <c r="F106">
         <v>18</v>
-      </c>
-      <c r="F106">
-        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-02 10:19:25</v>
+        <v>2023-10-06 02:05:39</v>
       </c>
       <c r="B107">
-        <v>17.89</v>
+        <v>18.47</v>
       </c>
       <c r="C107">
-        <v>25.18</v>
+        <v>24.91</v>
       </c>
       <c r="D107">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E107">
-        <v>18</v>
+        <v>16.7</v>
       </c>
       <c r="F107">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-02 15:29:24</v>
+        <v>2023-10-06 07:13:39</v>
       </c>
       <c r="B108">
-        <v>17.88</v>
+        <v>18.36</v>
       </c>
       <c r="C108">
-        <v>24.1</v>
+        <v>24.12</v>
       </c>
       <c r="D108">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E108">
-        <v>18</v>
+        <v>17.89</v>
       </c>
       <c r="F108">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-02 20:39:24</v>
+        <v>2023-10-06 12:23:38</v>
       </c>
       <c r="B109">
-        <v>18.98</v>
+        <v>17.86</v>
       </c>
       <c r="C109">
-        <v>24.82</v>
+        <v>26.5</v>
       </c>
       <c r="D109">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="E109">
-        <v>17</v>
+        <v>17.89</v>
       </c>
       <c r="F109">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-03 01:49:16</v>
+        <v>2023-10-06 17:33:37</v>
       </c>
       <c r="B110">
-        <v>18.57</v>
+        <v>17.75</v>
       </c>
       <c r="C110">
-        <v>24.89</v>
+        <v>25.42</v>
       </c>
       <c r="D110">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="E110">
-        <v>17.7</v>
+        <v>16.5</v>
       </c>
       <c r="F110">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-03 06:59:15</v>
+        <v>2023-10-06 22:43:37</v>
       </c>
       <c r="B111">
-        <v>18.57</v>
+        <v>17.7</v>
       </c>
       <c r="C111">
-        <v>24.21</v>
+        <v>24.41</v>
       </c>
       <c r="D111">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="E111">
-        <v>17.7</v>
+        <v>16.6</v>
       </c>
       <c r="F111">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-03 12:09:15</v>
+        <v>2023-10-07 03:54:24</v>
       </c>
       <c r="B112">
-        <v>19</v>
+        <v>17.8</v>
       </c>
       <c r="C112">
-        <v>23.7</v>
+        <v>24.47</v>
       </c>
       <c r="D112">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="E112">
-        <v>17.7</v>
+        <v>16.7</v>
       </c>
       <c r="F112">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-03 17:19:14</v>
+        <v>2023-10-07 09:04:44</v>
       </c>
       <c r="B113">
-        <v>18.59</v>
+        <v>17.86</v>
       </c>
       <c r="C113">
-        <v>25.28</v>
+        <v>24.82</v>
       </c>
       <c r="D113">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="E113">
-        <v>17.8</v>
+        <v>16.8</v>
       </c>
       <c r="F113">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-03 22:30:06</v>
+        <v>2023-10-07 14:15:38</v>
       </c>
       <c r="B114">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="C114">
-        <v>24.35</v>
+        <v>25.83</v>
       </c>
       <c r="D114">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E114">
-        <v>17.89</v>
+        <v>16.8</v>
       </c>
       <c r="F114">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-04 03:41:09</v>
+        <v>2023-10-07 19:25:19</v>
       </c>
       <c r="B115">
-        <v>18.07</v>
+        <v>17.98</v>
       </c>
       <c r="C115">
-        <v>25</v>
+        <v>24.39</v>
       </c>
       <c r="D115">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="E115">
-        <v>17.89</v>
+        <v>17</v>
       </c>
       <c r="F115">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-04 08:49:30</v>
+        <v>2023-10-08 00:34:08</v>
       </c>
       <c r="B116">
-        <v>18.18</v>
+        <v>17.5</v>
       </c>
       <c r="C116">
-        <v>24.4</v>
+        <v>24.97</v>
       </c>
       <c r="D116">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="E116">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="F116">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-04 14:01:12</v>
+        <v>2023-10-08 05:44:27</v>
       </c>
       <c r="B117">
-        <v>18.47</v>
+        <v>17.5</v>
       </c>
       <c r="C117">
-        <v>24.18</v>
+        <v>26.55</v>
       </c>
       <c r="D117">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="E117">
-        <v>16</v>
+        <v>16.8</v>
       </c>
       <c r="F117">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-04 19:09:37</v>
+        <v>2023-10-08 10:54:18</v>
       </c>
       <c r="B118">
-        <v>18.26</v>
+        <v>17.35</v>
       </c>
       <c r="C118">
-        <v>25.19</v>
+        <v>24.53</v>
       </c>
       <c r="D118">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E118">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="F118">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-05 00:19:36</v>
+        <v>2023-10-08 16:06:01</v>
       </c>
       <c r="B119">
-        <v>18.37</v>
+        <v>16.88</v>
       </c>
       <c r="C119">
-        <v>23.39</v>
+        <v>24.25</v>
       </c>
       <c r="D119">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="E119">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="F119">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-05 05:30:32</v>
+        <v>2023-10-08 21:16:06</v>
       </c>
       <c r="B120">
-        <v>18.46</v>
+        <v>17.59</v>
       </c>
       <c r="C120">
-        <v>23.54</v>
+        <v>24.82</v>
       </c>
       <c r="D120">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E120">
-        <v>17.2</v>
+        <v>16.6</v>
       </c>
       <c r="F120">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-05 10:39:43</v>
+        <v>2023-10-09 02:24:54</v>
       </c>
       <c r="B121">
-        <v>18</v>
+        <v>17.1</v>
       </c>
       <c r="C121">
-        <v>24.83</v>
+        <v>24.97</v>
       </c>
       <c r="D121">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E121">
-        <v>17.2</v>
+        <v>16.6</v>
       </c>
       <c r="F121">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-05 15:44:30</v>
+        <v>2023-10-09 07:34:28</v>
       </c>
       <c r="B122">
-        <v>17.57</v>
+        <v>17.89</v>
       </c>
       <c r="C122">
-        <v>23.75</v>
+        <v>25.83</v>
       </c>
       <c r="D122">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="E122">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="F122">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-05 20:54:09</v>
+        <v>2023-10-09 12:44:29</v>
       </c>
       <c r="B123">
-        <v>17.68</v>
+        <v>17.55</v>
       </c>
       <c r="C123">
-        <v>24.19</v>
+        <v>25.9</v>
       </c>
       <c r="D123">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E123">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="F123">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-06 02:05:39</v>
+        <v>2023-10-09 17:55:47</v>
       </c>
       <c r="B124">
-        <v>18.47</v>
+        <v>16.89</v>
       </c>
       <c r="C124">
-        <v>24.91</v>
+        <v>24.61</v>
       </c>
       <c r="D124">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="E124">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="F124">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-06 07:13:39</v>
+        <v>2023-10-09 23:04:45</v>
       </c>
       <c r="B125">
-        <v>18.36</v>
+        <v>16.62</v>
       </c>
       <c r="C125">
-        <v>24.12</v>
+        <v>24.82</v>
       </c>
       <c r="D125">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E125">
-        <v>17.89</v>
+        <v>16.6</v>
       </c>
       <c r="F125">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-06 12:23:38</v>
+        <v>2023-10-10 04:14:44</v>
       </c>
       <c r="B126">
-        <v>17.86</v>
+        <v>17.14</v>
       </c>
       <c r="C126">
-        <v>26.5</v>
+        <v>25.3</v>
       </c>
       <c r="D126">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="E126">
-        <v>17.89</v>
+        <v>16.6</v>
       </c>
       <c r="F126">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-06 17:33:37</v>
+        <v>2023-10-10 09:24:43</v>
       </c>
       <c r="B127">
-        <v>17.75</v>
+        <v>16.85</v>
       </c>
       <c r="C127">
-        <v>25.42</v>
+        <v>26.03</v>
       </c>
       <c r="D127">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="E127">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="F127">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-06 22:43:37</v>
+        <v>2023-10-10 14:35:31</v>
       </c>
       <c r="B128">
-        <v>17.7</v>
+        <v>17.44</v>
       </c>
       <c r="C128">
-        <v>24.41</v>
+        <v>24.87</v>
       </c>
       <c r="D128">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="E128">
         <v>16.6</v>
       </c>
       <c r="F128">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-07 03:54:24</v>
+        <v>2023-10-10 19:44:50</v>
       </c>
       <c r="B129">
-        <v>17.8</v>
+        <v>17.39</v>
       </c>
       <c r="C129">
-        <v>24.47</v>
+        <v>25.52</v>
       </c>
       <c r="D129">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E129">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="F129">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-07 09:04:44</v>
+        <v>2023-10-11 00:56:40</v>
       </c>
       <c r="B130">
-        <v>17.86</v>
+        <v>17.34</v>
       </c>
       <c r="C130">
-        <v>24.82</v>
+        <v>25.23</v>
       </c>
       <c r="D130">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="E130">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="F130">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-07 14:15:38</v>
+        <v>2023-10-11 06:04:57</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="C131">
-        <v>25.83</v>
+        <v>24.95</v>
       </c>
       <c r="D131">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="E131">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="F131">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-07 19:25:19</v>
+        <v>2023-10-11 11:14:55</v>
       </c>
       <c r="B132">
-        <v>17.98</v>
+        <v>17.2</v>
       </c>
       <c r="C132">
-        <v>24.39</v>
+        <v>25.17</v>
       </c>
       <c r="D132">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="E132">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="F132">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-08 00:34:08</v>
+        <v>2023-10-11 16:24:55</v>
       </c>
       <c r="B133">
-        <v>17.5</v>
+        <v>17.52</v>
       </c>
       <c r="C133">
-        <v>24.97</v>
+        <v>24.66</v>
       </c>
       <c r="D133">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E133">
-        <v>17</v>
+        <v>16.89</v>
       </c>
       <c r="F133">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-08 05:44:27</v>
+        <v>2023-10-11 21:36:07</v>
       </c>
       <c r="B134">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="C134">
-        <v>26.55</v>
+        <v>24.66</v>
       </c>
       <c r="D134">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="E134">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="F134">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-08 10:54:18</v>
+        <v>2023-10-12 01:36:07</v>
       </c>
       <c r="B135">
-        <v>17.35</v>
+        <v>17.89</v>
       </c>
       <c r="C135">
-        <v>24.53</v>
+        <v>25.24</v>
       </c>
       <c r="D135">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="E135">
         <v>16.8</v>
       </c>
       <c r="F135">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-08 16:06:01</v>
+        <v>2023-10-12 05:12:15</v>
       </c>
       <c r="B136">
-        <v>16.88</v>
+        <v>17.89</v>
       </c>
       <c r="C136">
-        <v>24.25</v>
+        <v>25.99</v>
       </c>
       <c r="D136">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="E136">
         <v>16.8</v>
       </c>
       <c r="F136">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-08 21:16:06</v>
+        <v>2023-10-12 08:49:12</v>
       </c>
       <c r="B137">
-        <v>17.59</v>
+        <v>17.79</v>
       </c>
       <c r="C137">
-        <v>24.82</v>
+        <v>24.97</v>
       </c>
       <c r="D137">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="E137">
-        <v>16.6</v>
+        <v>16.89</v>
       </c>
       <c r="F137">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-09 02:24:54</v>
+        <v>2023-10-12 12:27:40</v>
       </c>
       <c r="B138">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="C138">
-        <v>24.97</v>
+        <v>25.99</v>
       </c>
       <c r="D138">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="E138">
-        <v>16.6</v>
+        <v>16.89</v>
       </c>
       <c r="F138">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-09 07:34:28</v>
+        <v>2023-10-12 16:04:46</v>
       </c>
       <c r="B139">
-        <v>17.89</v>
+        <v>16.98</v>
       </c>
       <c r="C139">
-        <v>25.83</v>
+        <v>24.89</v>
       </c>
       <c r="D139">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="E139">
-        <v>16.6</v>
+        <v>16.89</v>
       </c>
       <c r="F139">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-09 12:44:29</v>
+        <v>2023-10-12 16:11:06</v>
       </c>
       <c r="B140">
-        <v>17.55</v>
+        <v>16.98</v>
       </c>
       <c r="C140">
-        <v>25.9</v>
+        <v>24.89</v>
       </c>
       <c r="D140">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="E140">
-        <v>16.6</v>
+        <v>16.89</v>
       </c>
       <c r="F140">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-09 17:55:47</v>
+        <v>2023-10-12 19:50:00</v>
       </c>
       <c r="B141">
+        <v>17.6</v>
+      </c>
+      <c r="C141">
+        <v>27.23</v>
+      </c>
+      <c r="D141">
+        <v>225</v>
+      </c>
+      <c r="E141">
         <v>16.89</v>
       </c>
-      <c r="C141">
-        <v>24.61</v>
-      </c>
-      <c r="D141">
-        <v>277</v>
-      </c>
-      <c r="E141">
-        <v>16.6</v>
-      </c>
       <c r="F141">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-09 23:04:45</v>
+        <v>2023-10-12 23:29:06</v>
       </c>
       <c r="B142">
-        <v>16.62</v>
+        <v>17.84</v>
       </c>
       <c r="C142">
-        <v>24.82</v>
+        <v>26.28</v>
       </c>
       <c r="D142">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E142">
-        <v>16.6</v>
+        <v>16.89</v>
       </c>
       <c r="F142">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-10 04:14:44</v>
+        <v>2023-10-13 03:11:22</v>
       </c>
       <c r="B143">
-        <v>17.14</v>
+        <v>17.94</v>
       </c>
       <c r="C143">
-        <v>25.3</v>
+        <v>27.01</v>
       </c>
       <c r="D143">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E143">
-        <v>16.6</v>
+        <v>16.89</v>
       </c>
       <c r="F143">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-10 09:24:43</v>
+        <v>2023-10-13 06:52:51</v>
       </c>
       <c r="B144">
-        <v>16.85</v>
+        <v>18</v>
       </c>
       <c r="C144">
-        <v>26.03</v>
+        <v>26.87</v>
       </c>
       <c r="D144">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E144">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="F144">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-10 14:35:31</v>
+        <v>2023-10-13 10:29:42</v>
       </c>
       <c r="B145">
-        <v>17.44</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>24.87</v>
+        <v>25.34</v>
       </c>
       <c r="D145">
         <v>224</v>
       </c>
       <c r="E145">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="F145">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-10 19:44:50</v>
+        <v>2023-10-13 14:07:35</v>
       </c>
       <c r="B146">
-        <v>17.39</v>
+        <v>17.18</v>
       </c>
       <c r="C146">
-        <v>25.52</v>
+        <v>26.22</v>
       </c>
       <c r="D146">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E146">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="F146">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-11 00:56:40</v>
+        <v>2023-10-13 19:17:01</v>
       </c>
       <c r="B147">
-        <v>17.34</v>
+        <v>17.5</v>
       </c>
       <c r="C147">
-        <v>25.23</v>
+        <v>26.22</v>
       </c>
       <c r="D147">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="E147">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="F147">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-11 06:04:57</v>
+        <v>2023-10-14 00:27:01</v>
       </c>
       <c r="B148">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="C148">
-        <v>24.95</v>
+        <v>26</v>
       </c>
       <c r="D148">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="E148">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="F148">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-11 11:14:55</v>
+        <v>2023-10-14 05:37:25</v>
       </c>
       <c r="B149">
-        <v>17.2</v>
+        <v>17.73</v>
       </c>
       <c r="C149">
-        <v>25.17</v>
+        <v>25.35</v>
       </c>
       <c r="D149">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E149">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="F149">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-11 16:24:55</v>
+        <v>2023-10-14 10:47:08</v>
       </c>
       <c r="B150">
-        <v>17.52</v>
+        <v>17.64</v>
       </c>
       <c r="C150">
-        <v>24.66</v>
+        <v>26.45</v>
       </c>
       <c r="D150">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E150">
-        <v>16.89</v>
+        <v>16.8</v>
       </c>
       <c r="F150">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-11 21:36:07</v>
+        <v>2023-10-14 15:57:08</v>
       </c>
       <c r="B151">
-        <v>17.6</v>
+        <v>16.93</v>
       </c>
       <c r="C151">
-        <v>24.66</v>
+        <v>25.5</v>
       </c>
       <c r="D151">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="E151">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="F151">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-12 01:36:07</v>
+        <v>2023-10-14 21:07:07</v>
       </c>
       <c r="B152">
-        <v>17.89</v>
+        <v>16.45</v>
       </c>
       <c r="C152">
-        <v>25.24</v>
+        <v>25.2</v>
       </c>
       <c r="D152">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="E152">
-        <v>16.8</v>
+        <v>16.1</v>
       </c>
       <c r="F152">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-12 05:12:15</v>
+        <v>2023-10-15 02:17:06</v>
       </c>
       <c r="B153">
-        <v>17.89</v>
+        <v>16.73</v>
       </c>
       <c r="C153">
-        <v>25.99</v>
+        <v>26.88</v>
       </c>
       <c r="D153">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="E153">
-        <v>16.8</v>
+        <v>16.1</v>
       </c>
       <c r="F153">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-12 08:49:12</v>
+        <v>2023-10-15 07:27:05</v>
       </c>
       <c r="B154">
-        <v>17.79</v>
+        <v>17.14</v>
       </c>
       <c r="C154">
-        <v>24.97</v>
+        <v>25.49</v>
       </c>
       <c r="D154">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="E154">
-        <v>16.89</v>
+        <v>16.1</v>
       </c>
       <c r="F154">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-12 12:27:40</v>
+        <v>2023-10-15 12:37:04</v>
       </c>
       <c r="B155">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="C155">
-        <v>25.99</v>
+        <v>25.49</v>
       </c>
       <c r="D155">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="E155">
-        <v>16.89</v>
+        <v>16.1</v>
       </c>
       <c r="F155">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-12 16:04:46</v>
+        <v>2023-10-15 17:47:04</v>
       </c>
       <c r="B156">
-        <v>16.98</v>
+        <v>17.07</v>
       </c>
       <c r="C156">
-        <v>24.89</v>
+        <v>26.08</v>
       </c>
       <c r="D156">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="E156">
-        <v>16.89</v>
+        <v>16.3</v>
       </c>
       <c r="F156">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-12 16:11:06</v>
+        <v>2023-10-15 22:57:50</v>
       </c>
       <c r="B157">
-        <v>16.98</v>
+        <v>17.6</v>
       </c>
       <c r="C157">
-        <v>24.89</v>
+        <v>25.49</v>
       </c>
       <c r="D157">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="E157">
-        <v>16.89</v>
+        <v>16.2</v>
       </c>
       <c r="F157">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-12 19:50:00</v>
+        <v>2023-10-16 04:07:11</v>
       </c>
       <c r="B158">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="C158">
-        <v>27.23</v>
+        <v>25.05</v>
       </c>
       <c r="D158">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E158">
-        <v>16.89</v>
+        <v>16.2</v>
       </c>
       <c r="F158">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-12 23:29:06</v>
+        <v>2023-10-16 09:19:38</v>
       </c>
       <c r="B159">
-        <v>17.84</v>
+        <v>17.52</v>
       </c>
       <c r="C159">
-        <v>26.28</v>
+        <v>24.91</v>
       </c>
       <c r="D159">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E159">
-        <v>16.89</v>
+        <v>16.2</v>
       </c>
       <c r="F159">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-13 03:11:22</v>
+        <v>2023-10-16 14:27:19</v>
       </c>
       <c r="B160">
-        <v>17.94</v>
+        <v>17.2</v>
       </c>
       <c r="C160">
-        <v>27.01</v>
+        <v>25.05</v>
       </c>
       <c r="D160">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E160">
-        <v>16.89</v>
+        <v>16.2</v>
       </c>
       <c r="F160">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-13 06:52:51</v>
+        <v>2023-10-16 18:03:43</v>
       </c>
       <c r="B161">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="C161">
-        <v>26.87</v>
+        <v>26.56</v>
       </c>
       <c r="D161">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="E161">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="F161">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-13 10:29:42</v>
+        <v>2023-10-16 21:42:38</v>
       </c>
       <c r="B162">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="C162">
-        <v>25.34</v>
+        <v>24.98</v>
       </c>
       <c r="D162">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="E162">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="F162">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-13 14:07:35</v>
+        <v>2023-10-17 01:22:52</v>
       </c>
       <c r="B163">
-        <v>17.18</v>
+        <v>17.23</v>
       </c>
       <c r="C163">
-        <v>26.22</v>
+        <v>24.98</v>
       </c>
       <c r="D163">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="E163">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="F163">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-13 19:17:01</v>
+        <v>2023-10-17 05:03:51</v>
       </c>
       <c r="B164">
-        <v>17.5</v>
+        <v>17.47</v>
       </c>
       <c r="C164">
-        <v>26.22</v>
+        <v>26.32</v>
       </c>
       <c r="D164">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E164">
-        <v>16.8</v>
+        <v>15.4</v>
       </c>
       <c r="F164">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-14 00:27:01</v>
+        <v>2023-10-17 08:44:32</v>
       </c>
       <c r="B165">
-        <v>17</v>
+        <v>18.26</v>
       </c>
       <c r="C165">
-        <v>26</v>
+        <v>25.3</v>
       </c>
       <c r="D165">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E165">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="F165">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-14 05:37:25</v>
+        <v>2023-10-17 12:24:16</v>
       </c>
       <c r="B166">
-        <v>17.73</v>
+        <v>18.22</v>
       </c>
       <c r="C166">
-        <v>25.35</v>
+        <v>25.3</v>
       </c>
       <c r="D166">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E166">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="F166">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-14 10:47:08</v>
+        <v>2023-10-17 16:01:35</v>
       </c>
       <c r="B167">
-        <v>17.64</v>
+        <v>16.88</v>
       </c>
       <c r="C167">
-        <v>26.45</v>
+        <v>25.59</v>
       </c>
       <c r="D167">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E167">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="F167">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="str">
-        <v>2023-10-14 15:57:08</v>
-      </c>
-      <c r="B168">
-        <v>16.93</v>
-      </c>
-      <c r="C168">
-        <v>25.5</v>
-      </c>
-      <c r="D168">
-        <v>266</v>
-      </c>
-      <c r="E168">
-        <v>16.8</v>
-      </c>
-      <c r="F168">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3649,7 +3629,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F168"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F167"/>
   </ignoredErrors>
 </worksheet>
 </file>